--- a/Enter.xlsx
+++ b/Enter.xlsx
@@ -475,13 +475,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
@@ -500,8 +500,10 @@
       <c r="B1" s="2" t="n">
         <v>5755037727</v>
       </c>
-      <c r="C1" s="3" t="n">
-        <v>45329.47935234051</v>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-11 21:35:26.660837</t>
+        </is>
       </c>
       <c r="D1" s="4" t="inlineStr">
         <is>
@@ -522,18 +524,25 @@
           <t>ПРОГРАМИСТ</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>TigidikTigidik228</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>@Bbvhbvhnbc</t>
+          <t>@IlonaLevtsun</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>5179358021</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>45306.56573790509</v>
+        <v>459113214</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-11 17:30:24.101273</t>
+        </is>
       </c>
       <c r="D2" s="7" t="inlineStr">
         <is>
@@ -544,20 +553,78 @@
       <c r="F2" s="14" t="n"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="1" t="inlineStr"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="7" t="inlineStr"/>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>@Bbvhbvhnbc</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>5179358021</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-11 17:40:01.986399</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
       <c r="E3" s="11" t="n"/>
       <c r="F3" s="14" t="n"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>пафос</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ПРОГРАМИСТ</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Bbvhbvhnbc</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="9" t="inlineStr"/>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="10" t="n"/>
-      <c r="D4" s="9" t="inlineStr"/>
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>@TigidikTigidik228</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>5755037727</v>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>2024-02-11 17:41:14.957204</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>EN-GB</t>
+        </is>
+      </c>
       <c r="E4" s="11" t="n"/>
       <c r="F4" s="14" t="n"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>пафос</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ПРОГРАМИСТ</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Bbvhbvhnbc</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="9" t="inlineStr"/>
